--- a/数据整理/stocks/A股/深证主板/002026-山东威达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002026-山东威达.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,37 +22,55 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>002252</t>
+  </si>
+  <si>
     <t>001830</t>
   </si>
   <si>
-    <t>002252</t>
+    <t>融通成长30灵活配置混合</t>
   </si>
   <si>
     <t>融通跨界成长灵活配置混合</t>
   </si>
   <si>
-    <t>融通成长30灵活配置混合</t>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>92.44</t>
   </si>
   <si>
     <t>93.04</t>
   </si>
   <si>
-    <t>92.44</t>
+    <t>4.47</t>
   </si>
   <si>
     <t>4.82</t>
   </si>
   <si>
-    <t>4.47</t>
+    <t>0.0796</t>
+  </si>
+  <si>
+    <t>0.0202</t>
   </si>
 </sst>
 </file>
@@ -410,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,45 +450,63 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002026-山东威达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002026-山东威达.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002026-山东威达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002026-山东威达.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002026-山东威达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002026-山东威达.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1053,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.18</v>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1048,14 +1091,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.31</v>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1064,13 +1129,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002026-山东威达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002026-山东威达.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,102 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1366,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1382,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002026-山东威达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002026-山东威达.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,133 +455,549 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002252</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通成长30灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0796</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001830</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通跨界成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -865,7 +1281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -873,542 +1289,126 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000717</t>
+          <t>002252</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合A</t>
+          <t>融通成长30灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1772</t>
+          <t>0.0796</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009828</t>
+          <t>001830</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合C</t>
+          <t>融通跨界成长灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000717</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1945</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009828</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0290</t>
+          <t>0.0202</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005146</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴银丰润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000892</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>九泰天宝灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002028</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>九泰天宝灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>